--- a/Groq_Chatbot/groq_model_limits.xlsx
+++ b/Groq_Chatbot/groq_model_limits.xlsx
@@ -1,37 +1,165 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\all_projects\Groq_Chatbot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D30387E-4C1F-4E03-8D18-649EBCCCD668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+  <si>
+    <t>model_id</t>
+  </si>
+  <si>
+    <t>owned_by</t>
+  </si>
+  <si>
+    <t>context_window</t>
+  </si>
+  <si>
+    <t>max_completion_tokens</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>playai-tts</t>
+  </si>
+  <si>
+    <t>PlayAI</t>
+  </si>
+  <si>
+    <t>llama3-70b-8192</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>meta-llama/llama-prompt-guard-2-86m</t>
+  </si>
+  <si>
+    <t>llama3-8b-8192</t>
+  </si>
+  <si>
+    <t>openai/gpt-oss-120b</t>
+  </si>
+  <si>
+    <t>OpenAI</t>
+  </si>
+  <si>
+    <t>meta-llama/llama-prompt-guard-2-22m</t>
+  </si>
+  <si>
+    <t>whisper-large-v3-turbo</t>
+  </si>
+  <si>
+    <t>distil-whisper-large-v3-en</t>
+  </si>
+  <si>
+    <t>Hugging Face</t>
+  </si>
+  <si>
+    <t>meta-llama/llama-4-scout-17b-16e-instruct</t>
+  </si>
+  <si>
+    <t>allam-2-7b</t>
+  </si>
+  <si>
+    <t>SDAIA</t>
+  </si>
+  <si>
+    <t>meta-llama/llama-guard-4-12b</t>
+  </si>
+  <si>
+    <t>compound-beta</t>
+  </si>
+  <si>
+    <t>Groq</t>
+  </si>
+  <si>
+    <t>gemma2-9b-it</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>qwen/qwen3-32b</t>
+  </si>
+  <si>
+    <t>Alibaba Cloud</t>
+  </si>
+  <si>
+    <t>openai/gpt-oss-20b</t>
+  </si>
+  <si>
+    <t>llama-3.1-8b-instant</t>
+  </si>
+  <si>
+    <t>whisper-large-v3</t>
+  </si>
+  <si>
+    <t>playai-tts-arabic</t>
+  </si>
+  <si>
+    <t>moonshotai/kimi-k2-instruct</t>
+  </si>
+  <si>
+    <t>Moonshot AI</t>
+  </si>
+  <si>
+    <t>meta-llama/llama-4-maverick-17b-128e-instruct</t>
+  </si>
+  <si>
+    <t>compound-beta-mini</t>
+  </si>
+  <si>
+    <t>deepseek-r1-distill-llama-70b</t>
+  </si>
+  <si>
+    <t>DeepSeek / Meta</t>
+  </si>
+  <si>
+    <t>llama-3.3-70b-versatile</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +174,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,600 +498,494 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>model_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>owned_by</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>context_window</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>max_completion_tokens</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>playai-tts</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>PlayAI</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8192</v>
-      </c>
-      <c r="D2" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>8192</v>
+      </c>
+      <c r="D2">
         <v>8192</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>1740682771</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>llama3-70b-8192</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Meta</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8192</v>
-      </c>
-      <c r="D3" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>8192</v>
+      </c>
+      <c r="D3">
         <v>8192</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>1693721698</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>meta-llama/llama-prompt-guard-2-86m</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Meta</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
         <v>512</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>512</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>1748632165</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>llama3-8b-8192</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Meta</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8192</v>
-      </c>
-      <c r="D5" t="n">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>8192</v>
+      </c>
+      <c r="D5">
         <v>8192</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>1693721698</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>openai/gpt-oss-120b</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>OpenAI</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>131072</v>
-      </c>
-      <c r="D6" t="n">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>131072</v>
+      </c>
+      <c r="D6">
         <v>32766</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>1754408224</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>meta-llama/llama-prompt-guard-2-22m</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Meta</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
         <v>512</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>512</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>1748632101</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>whisper-large-v3-turbo</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>OpenAI</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
         <v>448</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>448</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>1728413088</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>distil-whisper-large-v3-en</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Hugging Face</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
         <v>448</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>448</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>1693721698</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>meta-llama/llama-4-scout-17b-16e-instruct</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Meta</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>131072</v>
-      </c>
-      <c r="D10" t="n">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>131072</v>
+      </c>
+      <c r="D10">
         <v>8192</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>1743874824</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>allam-2-7b</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>SDAIA</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
         <v>4096</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>4096</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>1737672203</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>meta-llama/llama-guard-4-12b</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Meta</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>131072</v>
-      </c>
-      <c r="D12" t="n">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>131072</v>
+      </c>
+      <c r="D12">
         <v>1024</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>1746743847</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>compound-beta</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Groq</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>131072</v>
-      </c>
-      <c r="D13" t="n">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>131072</v>
+      </c>
+      <c r="D13">
         <v>8192</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>1740880017</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>gemma2-9b-it</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Google</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>8192</v>
-      </c>
-      <c r="D14" t="n">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>8192</v>
+      </c>
+      <c r="D14">
         <v>8192</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>1693721698</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>qwen/qwen3-32b</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Alibaba Cloud</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>131072</v>
-      </c>
-      <c r="D15" t="n">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>131072</v>
+      </c>
+      <c r="D15">
         <v>40960</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>1748396646</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>openai/gpt-oss-20b</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>OpenAI</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>131072</v>
-      </c>
-      <c r="D16" t="n">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>131072</v>
+      </c>
+      <c r="D16">
         <v>32768</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>1754407957</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>llama-3.1-8b-instant</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Meta</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>131072</v>
-      </c>
-      <c r="D17" t="n">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>131072</v>
+      </c>
+      <c r="D17">
         <v>131072</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>1693721698</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>whisper-large-v3</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>OpenAI</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
         <v>448</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>448</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>1693721698</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>playai-tts-arabic</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>PlayAI</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>8192</v>
-      </c>
-      <c r="D19" t="n">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>8192</v>
+      </c>
+      <c r="D19">
         <v>8192</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>1740682783</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>moonshotai/kimi-k2-instruct</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Moonshot AI</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>131072</v>
-      </c>
-      <c r="D20" t="n">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>131072</v>
+      </c>
+      <c r="D20">
         <v>16384</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>1752435491</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>meta-llama/llama-4-maverick-17b-128e-instruct</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Meta</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>131072</v>
-      </c>
-      <c r="D21" t="n">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>131072</v>
+      </c>
+      <c r="D21">
         <v>8192</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>1743877158</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>compound-beta-mini</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Groq</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>131072</v>
-      </c>
-      <c r="D22" t="n">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>131072</v>
+      </c>
+      <c r="D22">
         <v>8192</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>1742953279</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>deepseek-r1-distill-llama-70b</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>DeepSeek / Meta</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>131072</v>
-      </c>
-      <c r="D23" t="n">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23">
+        <v>131072</v>
+      </c>
+      <c r="D23">
         <v>131072</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>1737924940</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>llama-3.3-70b-versatile</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Meta</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>131072</v>
-      </c>
-      <c r="D24" t="n">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>131072</v>
+      </c>
+      <c r="D24">
         <v>32768</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>1733447754</v>
       </c>
     </row>
